--- a/T8B - Frank-Hertz.xlsx
+++ b/T8B - Frank-Hertz.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AF02EC-4539-4BB7-9E1D-559753CA16C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF28FE7-2D8A-436A-BB2B-0F4CA406CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB49ADD9-0CA5-4C82-AD99-5ED7E5189E9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="E excitação" sheetId="1" r:id="rId1"/>
-    <sheet name="E ionização" sheetId="4" r:id="rId2"/>
+    <sheet name="E excitação" sheetId="5" r:id="rId1"/>
+    <sheet name="E ionização" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Vmin</t>
   </si>
@@ -70,6 +70,39 @@
   <si>
     <t>Matriz de Ajuste</t>
   </si>
+  <si>
+    <t>I aquec</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>u(m)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>V referencia</t>
+  </si>
+  <si>
+    <t>Erro %</t>
+  </si>
+  <si>
+    <t>V ioniz exp</t>
+  </si>
+  <si>
+    <t>V ioniz ref</t>
+  </si>
 </sst>
 </file>
 
@@ -77,10 +110,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +121,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +132,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -150,13 +192,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -244,22 +310,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -336,26 +386,566 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'E excitação'!$A$2:$A$51</c:f>
+              <c:f>'E excitação'!$A$2:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>-0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.484</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.3959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.8209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.391</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.9370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.0730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.1760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.2439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.4990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.5020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.5850000000000009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.2349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.3030000000000008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.4060000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.577</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.8859999999999992</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.298</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10.975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'E excitação'!$B$2:$B$51</c:f>
+              <c:f>'E excitação'!$B$2:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91C9-4276-8D31-9C41762F82CE}"/>
+              <c16:uniqueId val="{00000000-30A4-467D-A5A6-9C2A4E2693DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -374,8 +964,6 @@
         <c:axId val="184021071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9.5"/>
-          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -501,7 +1089,6 @@
         <c:axId val="184021903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -715,168 +1302,330 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'E excitação'!$A$2:$A$51</c:f>
+              <c:f>'E excitação'!$A$40:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>5.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5850000000000009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.2349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3030000000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.4060000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.577</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8859999999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'E excitação'!$D$2:$D$51</c:f>
+              <c:f>'E excitação'!$D$40:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.4455173032429407E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.5167463045721048E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2233639638336578E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7648297317869877E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4751883835006918E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.6620776077042043E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.0880227677256826E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-6.0599761825708143E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.2031572407192326E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.8880026742070788E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.4762516073388299E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-6.86070900594693E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-9.4031876317401952E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-1.8953387080814232E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1.9609583923796137E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-2.1265423576554976E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-1.3853849216316216E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-9.5193949210167772E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-2.3850749152879713E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-2.2135983509299628E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-1.9140919906836806E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-1.5481360177956038E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-1.3572614636280511E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-4.9900932364593809E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-6.2558035631404829E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-2.2144443889052234E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-4.6004072559671649E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>3.2657700349011942E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-7.6799970360891257E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-4.0125366458251821E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.3070154202940443E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1.1129140244188485E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>5.8650084314951223E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>9.8494559490097666E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1.0448073179429307E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.3623116238800654E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>2.4736893791298398E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>2.1750615229732539E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2.2697696209799112E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1.813903557548513E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>2.1717906190302227E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2.8522951218517556E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>1.6848980242836209E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1.3542679071504304E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2.7501916396949211E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>-6.3063575515220904E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>9.419656068672122E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>-9.6560974607140526E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>-1.6070767790288265E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>-1.3504777851590655E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.1676981320274402E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.9663121630963971E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +1633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E317-4C75-8FB8-9A8479D9D0A1}"/>
+              <c16:uniqueId val="{00000000-937B-41CB-8C90-2450B3914818}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -903,8 +1652,8 @@
         <c:axId val="332114095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9.5"/>
-          <c:min val="4"/>
+          <c:max val="11"/>
+          <c:min val="5.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1201,37 +1950,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1241,7 +1960,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>I(V)</c:v>
+            <c:v>Resíduos</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1265,28 +1984,385 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'E ionização'!$A$2:$A$101</c:f>
+              <c:f>'E excitação'!$A$40:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>5.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5850000000000009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.2349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3030000000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.4060000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.577</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8859999999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'E ionização'!$B$2:$B$101</c:f>
+              <c:f>'E excitação'!$B$40:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-510C-4139-BAE0-202C1B643AD6}"/>
+              <c16:uniqueId val="{00000000-F266-4040-BF38-3E932A8776BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,13 +2374,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2026512608"/>
-        <c:axId val="2026532992"/>
+        <c:axId val="476050063"/>
+        <c:axId val="476057135"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2026512608"/>
+        <c:axId val="476050063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="4.9000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1322,61 +2400,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>V acel (V)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1414,14 +2437,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2026532992"/>
+        <c:crossAx val="476057135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2026532992"/>
+        <c:axId val="476057135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1439,61 +2463,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>I (A)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1531,7 +2500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2026512608"/>
+        <c:crossAx val="476050063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1588,6 +2557,1364 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>I (V)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'E ionização'!$A$2:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>-1.732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.784000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.927</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.628</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.874000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.157</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.439</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.537000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.673</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.791</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.907999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.026999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.206</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.387</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.855</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.113</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.187999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.305</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.427</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.727</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.986999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.291</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.363</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.552</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.741</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.867999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.317</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.510999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.555</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.756</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.56</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E ionização'!$B$2:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.27E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.6399999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.1600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1149</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1328</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1404</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.16539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1749</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.17960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.2039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.21129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.2162</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.22109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2286</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.23350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.2359</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.2407</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.25059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.25319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.25569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.26050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.26319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.2737</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.2762</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.28149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.28639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29630000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CD4-4EFE-AC50-B4B00BE98B02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="1"/>
+            <c:backward val="6.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'E ionização'!$A$65:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E ionização'!$B$65:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.2286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29630000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CD4-4EFE-AC50-B4B00BE98B02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="962699663"/>
+        <c:axId val="962707983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="962699663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962707983"/>
+        <c:crossesAt val="-1000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="962707983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962699663"/>
+        <c:crossesAt val="-1000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4636920384951886E-4"/>
+                  <c:y val="0.2368507582385535"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'E ionização'!$A$65:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E ionização'!$B$65:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.2286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29630000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B44-46E4-946E-B227D198C74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684781663"/>
+        <c:axId val="684778751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684781663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="19"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684778751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="684778751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.22000000000000003"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684781663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1667,318 +3994,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'E ionização'!$A$2:$A$101</c:f>
+              <c:f>'E ionização'!$A$65:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'E ionização'!$D$2:$D$101</c:f>
+              <c:f>'E ionização'!$D$65:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7735505048446787E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6148322575496032E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.5732914738270143E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0111868461584739E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1.7945393067606008E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.7095455270921267E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.8014805968097347E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-2.8934156665283428E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-2.1614139812353717E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.6314930374711212E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.209788715233918E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.2696306027604187E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-2.0044845347511053E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.6408332992293735E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.170754242992734E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-2.9932481324268512E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.5419569394609089E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>-3.3982011730099293E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,7 +4121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADB3-426A-B2BF-D02F81FB243C}"/>
+              <c16:uniqueId val="{00000000-50C3-4825-B9CD-EBA7851230B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1998,11 +4133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1892454832"/>
-        <c:axId val="1892457744"/>
+        <c:axId val="687018383"/>
+        <c:axId val="687017967"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1892454832"/>
+        <c:axId val="687018383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,61 +4157,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>V acel (V)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2114,12 +4194,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1892457744"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="687017967"/>
+        <c:crossesAt val="-10000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1892457744"/>
+        <c:axId val="687017967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,61 +4219,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Resíduos de I (A)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2231,7 +4256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1892454832"/>
+        <c:crossAx val="687018383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2447,6 +4472,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3996,6 +6101,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4528,14 +7665,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141FCD98-8DFC-30DB-97A6-09BE5A0A76ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBF6211-C55A-4090-9F0F-90B17DD6FED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4564,14 +7703,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="3" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8FF48F-2667-E899-0972-E6D3EC2222C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21B8764-9D1C-4CD1-A695-08A8CA2CFD59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4585,6 +7726,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>861786</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45BFA36-2383-9AFB-2C68-83F09E16E8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4592,23 +7769,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>578224</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>121023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61496E44-F855-1E1B-C35D-13972B39F8F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74429F0-7396-0031-FBF6-123948F8DDF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,23 +7805,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>58271</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E464FDC-8AFA-DCC5-58BA-19709A728FD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94FAF40-75D9-2437-A169-36B314BFD570}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4657,6 +7834,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121024</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F958F9DA-0EC5-285B-0BA7-A4F7E7A9690B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4961,704 +8174,1567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4A6FFD-3040-4BA5-8063-7CA164A34565}">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC4E1F-DE34-448F-AA19-AE0EE9C0CA35}">
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N37" sqref="N36:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="e">
-        <f>$G$4*A2^2+$H$4*A2+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="3" t="e">
-        <f>B2-C2</f>
-        <v>#VALUE!</v>
+      <c r="A2" s="2">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C33" si="0">$G$4*A2^2+$H$4*A2+$I$4</f>
+        <v>0.571891800461102</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D33" si="1">B2-C2</f>
+        <v>-0.56789180046110199</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="e">
-        <f>$G$4*A3^2+$H$4*A3+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="3" t="e">
-        <f t="shared" ref="D3:D51" si="0">B3-C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="2">
+        <v>-1.0740000000000001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61550871460386625</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.61250871460386624</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="L3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>-H4/(2*G4)</f>
+        <v>7.8834084702010729</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="e">
-        <f>$G$4*A4^2+$H$4*A4+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="3" t="e">
+      <c r="A4" s="2">
+        <v>-1.03</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>0.61173115269974832</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.60873115269974831</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="e">
-        <f t="array" ref="G4:I6">LINEST(B2:B51,A2:A51^{1,2},1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="6" t="e">
-        <v>#VALUE!</v>
+      <c r="G4" s="4">
+        <f t="array" ref="G4:I6">LINEST(B40:B91,A40:A91^{1,2},1,1)</f>
+        <v>4.8041273057274373E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-7.5745795787791878E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.52861628437967645</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <f>SQRT((H4/(2*G4^2)*G5)^2+(1/(2*G4)*H5)^2)</f>
+        <v>0.28505806608140977</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="e">
-        <f>$G$4*A5^2+$H$4*A5+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="3" t="e">
+      <c r="A5" s="2">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>0.56359466355735699</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.55859466355735699</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="e">
-        <f>-H4/(2*G4)</f>
-        <v>#VALUE!</v>
+      <c r="G5" s="4">
+        <v>1.1942973649027417E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.9889295374816178E-3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8.067710187402535E-3</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="e">
-        <f>$G$4*A6^2+$H$4*A6+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+      <c r="A6" s="2">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>0.54217379873847671</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.52417379873847669</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="e">
-        <f>SQRT((H4/(2*G4^2)*G5)^2+(1/(2*G4)*H5)^2)</f>
-        <v>#VALUE!</v>
+      <c r="G6" s="5">
+        <v>0.97809664988513267</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.8122801136947145E-3</v>
+      </c>
+      <c r="I6" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="13">
+        <f>ABS(M3-M5)/M5</f>
+        <v>5.0191750578184063E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="e">
-        <f>$G$4*A7^2+$H$4*A7+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+      <c r="A7" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.51388080598608943</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.43288080598608941</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="e">
-        <f>$G$4*A8^2+$H$4*A8+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="3" t="e">
+      <c r="A8" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.50320067719785533</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.39320067719785534</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="e">
-        <f>$G$4*A9^2+$H$4*A9+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="3" t="e">
+      <c r="A9" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.49650436280050875</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.36050436280050874</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="e">
-        <f>$G$4*A10^2+$H$4*A10+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="3" t="e">
+      <c r="A10" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.48217634693687939</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.3091763469368794</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="e">
-        <f>$G$4*A11^2+$H$4*A11+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="3" t="e">
+      <c r="A11" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.47259391664889427</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.26759391664889431</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="e">
-        <f>$G$4*A12^2+$H$4*A12+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="3" t="e">
+      <c r="A12" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.46339797576433017</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.20039797576433016</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="e">
-        <f>$G$4*A13^2+$H$4*A13+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="3" t="e">
+      <c r="A13" s="2">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.44547489122539097</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.14047489122539097</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="e">
-        <f>$G$4*A14^2+$H$4*A14+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="3" t="e">
+      <c r="A14" s="2">
+        <v>1.256</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.4410582486435779</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.10105824864357787</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="e">
-        <f>$G$4*A15^2+$H$4*A15+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="3" t="e">
+      <c r="A15" s="2">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.4308685200252691</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.88685200252691E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="e">
-        <f>$G$4*A16^2+$H$4*A16+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="3" t="e">
+      <c r="A16" s="2">
+        <v>1.554</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="e">
-        <f>$G$4*A17^2+$H$4*A17+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="3" t="e">
+        <v>0.42250888162208594</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.3508881622085929E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="e">
-        <f>$G$4*A18^2+$H$4*A18+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="3" t="e">
+        <v>0.41972157702187168</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.1721577021871663E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1.732</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="e">
-        <f>$G$4*A19^2+$H$4*A19+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="3" t="e">
+        <v>0.41183610246599744</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1638975340025381E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1.859</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="e">
-        <f>$G$4*A20^2+$H$4*A20+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="3" t="e">
+        <v>0.40440734228761599</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8592657712384006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="e">
-        <f>$G$4*A21^2+$H$4*A21+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="3" t="e">
+        <v>0.3963412020270024</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8658797972997603E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2.141</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="e">
-        <f>$G$4*A22^2+$H$4*A22+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="3" t="e">
+        <v>0.38846608347631922</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>6.453391652368079E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="e">
-        <f>$G$4*A23^2+$H$4*A23+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="3" t="e">
+        <v>0.38479095618526193</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3209043814738084E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="e">
-        <f>$G$4*A24^2+$H$4*A24+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="3" t="e">
+        <v>0.37031401540709863</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9685984592901391E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="e">
-        <f>$G$4*A25^2+$H$4*A25+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="3" t="e">
+        <v>0.3631903278659302</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2809672134069821E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="e">
-        <f>$G$4*A26^2+$H$4*A26+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="3" t="e">
+        <v>0.35818019144294833</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2819808557051686E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="e">
-        <f>$G$4*A27^2+$H$4*A27+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="3" t="e">
+        <v>0.3531202004251125</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2879799574887512E-2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>2.992</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="e">
-        <f>$G$4*A28^2+$H$4*A28+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="3" t="e">
+        <v>0.34499171848762278</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>9.100828151237722E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>3.1629999999999998</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="e">
-        <f>$G$4*A29^2+$H$4*A29+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="3" t="e">
+        <v>0.33709555541782499</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>8.6904444582175E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="e">
-        <f>$G$4*A30^2+$H$4*A30+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="3" t="e">
+        <v>0.33048826182746915</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1511738172530823E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="e">
-        <f>$G$4*A31^2+$H$4*A31+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="3" t="e">
+        <v>0.32055441454910316</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2445585450896854E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="e">
-        <f>$G$4*A32^2+$H$4*A32+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="3" t="e">
+        <v>0.31113772196694417</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>6.286227803305583E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4.484</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.2855651495327638</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6434850467236231E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="e">
-        <f>$G$4*A33^2+$H$4*A33+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="3" t="e">
+      <c r="A33" s="2">
+        <v>4.8659999999999997</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.27378915703969398</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>2.221084296030601E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="e">
-        <f>$G$4*A34^2+$H$4*A34+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A34" s="9">
+        <v>5.07</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C65" si="2">$G$4*A34^2+$H$4*A34+$I$4</f>
+        <v>0.26807471171656483</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D65" si="3">B34-C34</f>
+        <v>1.7925288283435148E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="e">
-        <f>$G$4*A35^2+$H$4*A35+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A35" s="2">
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26446150392960899</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4538496070391038E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="e">
-        <f>$G$4*A36^2+$H$4*A36+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A36" s="2">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25977286111019304</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0227138889806975E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="e">
-        <f>$G$4*A37^2+$H$4*A37+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A37" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2577991881044942</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2008118955058107E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="e">
-        <f>$G$4*A38^2+$H$4*A38+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A38" s="9">
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25549372907224704</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5062709277529662E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="e">
-        <f>$G$4*A39^2+$H$4*A39+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A39" s="2">
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25360630239826543</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3936976017345826E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="e">
-        <f>$G$4*A40^2+$H$4*A40+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A40" s="12">
+        <v>5.7190000000000003</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25255448269675707</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4455173032429407E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="e">
-        <f>$G$4*A41^2+$H$4*A41+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A41" s="2">
+        <v>5.8209999999999997</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.254</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2504832536954279</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5167463045721048E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="e">
-        <f>$G$4*A42^2+$H$4*A42+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A42" s="2">
+        <v>5.9089999999999998</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24877663603616634</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2233639638336578E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="e">
-        <f>$G$4*A43^2+$H$4*A43+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A43" s="2">
+        <v>5.992</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24723517026821301</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7648297317869877E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="e">
-        <f>$G$4*A44^2+$H$4*A44+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A44" s="2">
+        <v>6.1280000000000001</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24485248116164993</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4751883835006918E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="e">
-        <f>$G$4*A45^2+$H$4*A45+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D45" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A45" s="2">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24316620776077041</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.6620776077042043E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="e">
-        <f>$G$4*A46^2+$H$4*A46+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A46" s="2">
+        <v>6.2990000000000004</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24210880227677256</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0880227677256826E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="e">
-        <f>$G$4*A47^2+$H$4*A47+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A47" s="2">
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24060599761825707</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.0599761825708143E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="e">
-        <f>$G$4*A48^2+$H$4*A48+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A48" s="2">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23920315724071922</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.2031572407192326E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="e">
-        <f>$G$4*A49^2+$H$4*A49+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A49" s="2">
+        <v>6.6059999999999999</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23788800267420707</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.8880026742070788E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="e">
-        <f>$G$4*A50^2+$H$4*A50+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A50" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23747625160733882</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.4762516073388299E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="e">
-        <f>$G$4*A51^2+$H$4*A51+$I$4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A51" s="2">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23668607090059468</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.86070900594693E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23594031876317401</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.4031876317401952E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>6.8789999999999996</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23489533870808144</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.8953387080814232E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>6.9809999999999999</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23396095839237963</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9609583923796137E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23312654235765551</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.1265423576554976E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>7.1859999999999999</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23238538492163163</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.3853849216316216E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>7.2539999999999996</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23195193949210169</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.5193949210167772E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23138507491528798</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.3850749152879713E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>7.391</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23121359835092997</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.2135983509299628E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>7.4589999999999996</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23091409199068369</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9140919906836806E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23054813601779561</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.5481360177956038E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>7.63</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23035726146362806</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.3572614636280511E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>7.8680000000000003</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2300499009323646</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.9900932364593809E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>7.9370000000000003</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23006255803563141</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.2558035631404829E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>8.0730000000000004</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23022144443889053</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.2144443889052234E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>8.1760000000000002</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" ref="C66:C91" si="4">$G$4*A66^2+$H$4*A66+$I$4</f>
+        <v>0.23046004072559673</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66:D97" si="5">B66-C66</f>
+        <v>-4.6004072559671649E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>8.2439999999999998</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23067342299650989</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="5"/>
+        <v>3.2657700349011942E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2310767999703609</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="5"/>
+        <v>-7.6799970360891257E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>8.4139999999999997</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23140125366458253</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="5"/>
+        <v>-4.0125366458251821E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>8.4990000000000006</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23186929845797061</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3070154202940443E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>8.5020000000000007</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23188708597558116</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1129140244188485E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>8.5850000000000009</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2324134991568505</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="5"/>
+        <v>5.8650084314951223E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23290150544050991</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="5"/>
+        <v>9.8494559490097666E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>8.8940000000000001</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23495519268205706</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0448073179429307E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23563768837611992</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="5"/>
+        <v>3.3623116238800654E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>9.1310000000000002</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23752631062087015</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4736893791298398E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>9.2349999999999994</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23882493847702674</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1750615229732539E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>9.3030000000000008</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23973023037902008</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2697696209799112E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>9.4060000000000006</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24118609644245148</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="5"/>
+        <v>1.813903557548513E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>9.577</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24382820938096977</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1717906190302227E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>9.7140000000000004</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24614770487814824</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8522951218517556E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>9.8859999999999992</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24931510197571638</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6848980242836209E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>9.9540000000000006</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25064573209284957</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3542679071504304E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>10.055999999999999</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25272498083603051</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7501916396949211E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>10.191000000000001</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25563063575515221</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="5"/>
+        <v>-6.3063575515220904E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>10.298</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2580580343931328</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="5"/>
+        <v>9.419656068672122E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>10.500999999999999</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26296560974607142</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="5"/>
+        <v>-9.6560974607140526E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>10.603999999999999</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26560707677902884</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.6070767790288265E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>10.707000000000001</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26835047778515908</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.3504777851590655E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>10.808999999999999</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27116769813202746</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.1676981320274402E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>10.975</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27596631216309642</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.9663121630963971E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5666,1297 +9742,1526 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B28B92D-DD24-4C70-8336-0A9AE084C754}">
-  <dimension ref="A1:I102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373E475D-FABE-447D-A5A2-77A25D8F5E9F}">
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="e">
-        <f>$G$3*A2^2+$H$3*A2+$I$3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="3" t="e">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>-1.732</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2*$G$3+$H$3</f>
+        <v>-0.55917565016946347</v>
+      </c>
+      <c r="D2" s="2">
         <f>B2-C2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>0.56227565016946346</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="e">
-        <f t="shared" ref="C3:C66" si="0">$G$3*A3^2+$H$3*A3+$I$3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="3" t="e">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="K2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <f>-H3/G3</f>
+        <v>13.055373860389322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>-0.69199999999999995</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">A3*$G$3+$H$3</f>
+        <v>-0.51984867557162695</v>
+      </c>
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="1">B3-C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="e">
-        <f t="array" ref="G3:I5">LINEST(B2:B101,A2:A101^{1,2},1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="e">
+        <v>0.52314867557162692</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="array" ref="G3:H5">LINEST(B65:B82,A65:A82,1,1)</f>
+        <v>3.7814398651765842E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-0.49368111170460499</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>12.129899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="3" t="e">
+        <v>-0.47091684371624198</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="e">
+        <v>0.47411684371624196</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.2086287522801573E-5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.8422142207004531E-3</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="13">
+        <f>ABS(L2-L3)/L3</f>
+        <v>7.6296907673544107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="3" t="e">
+        <v>-0.42939663399660305</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>0.43259663399660303</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="e">
+      <c r="G5" s="2">
+        <v>0.99990512444938717</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.1038576955917967E-4</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>-0.39559056160192441</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="e">
+        <v>0.3986905616019244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>-0.35149897277396547</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="e">
+        <v>0.35469897277396545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="3" t="e">
+        <v>-0.3125879565612984</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="e">
+        <v>0.31578795656129838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5.681</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="3" t="e">
+        <v>-0.27885751296392325</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="e">
+        <v>0.28205751296392323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="3" t="e">
+        <v>-0.23639194327799018</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="e">
+        <v>0.23959194327799019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="3" t="e">
+        <v>-0.20776644349860346</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="e">
+        <v>0.21106644349860346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8.7680000000000007</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="3" t="e">
+        <v>-0.16212446432592209</v>
+      </c>
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="e">
+        <v>0.16542446432592209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9.7270000000000003</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="3" t="e">
+        <v>-0.12586045601887863</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="e">
+        <v>0.12926045601887862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>10.792999999999999</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="3" t="e">
+        <v>-8.5550307056096286E-2</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="e">
+        <v>8.8750307056096281E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>11.784000000000001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="3" t="e">
+        <v>-4.8076237992196291E-2</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="e">
+        <v>5.1376237992196289E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>12.73</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="3" t="e">
+        <v>-1.2303816867625827E-2</v>
+      </c>
+      <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.6803816867625828E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="e">
+      <c r="A17" s="2">
+        <v>12.927</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="3" t="e">
+        <v>-4.8543803332279922E-3</v>
+      </c>
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>9.9543803332279926E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="e">
+      <c r="A18" s="2">
+        <v>13.185</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="3" t="e">
+        <v>4.9017345189276695E-3</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.5982654810723302E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="e">
+      <c r="A19" s="2">
+        <v>13.377000000000001</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="3" t="e">
+        <v>1.2162099060066656E-2</v>
+      </c>
+      <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-4.0620990600666561E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="e">
+      <c r="A20" s="2">
+        <v>13.628</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="3" t="e">
+        <v>2.1653513121659917E-2</v>
+      </c>
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.0353513121659918E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="e">
+      <c r="A21" s="2">
+        <v>13.874000000000001</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="3" t="e">
+        <v>3.0955855189994275E-2</v>
+      </c>
+      <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.4955855189994274E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="e">
+      <c r="A22" s="2">
+        <v>14.048</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="3" t="e">
+        <v>3.7535560555401581E-2</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.6035560555401583E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="e">
+      <c r="A23" s="2">
+        <v>14.157</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="3" t="e">
+        <v>4.1657330008444016E-2</v>
+      </c>
+      <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.4657330008444016E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="e">
+      <c r="A24" s="2">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.27E-2</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="3" t="e">
+        <v>4.5816913860138253E-2</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.3116913860138253E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="e">
+      <c r="A25" s="2">
+        <v>14.439</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.07E-2</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="3" t="e">
+        <v>5.2320990428241954E-2</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.1620990428241953E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="e">
+      <c r="A26" s="2">
+        <v>14.537000000000001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.53E-2</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="3" t="e">
+        <v>5.6026801496115108E-2</v>
+      </c>
+      <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.0726801496115108E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="e">
+      <c r="A27" s="2">
+        <v>14.673</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="3" t="e">
+        <v>6.1169559712755228E-2</v>
+      </c>
+      <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-9.7695597127552269E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="e">
+      <c r="A28" s="2">
+        <v>14.791</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="3" t="e">
+        <v>6.5631658753663558E-2</v>
+      </c>
+      <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-9.131658753663556E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="e">
+      <c r="A29" s="2">
+        <v>14.907999999999999</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="3" t="e">
+        <v>7.0055943395920195E-2</v>
+      </c>
+      <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-9.0559433959201963E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="e">
+      <c r="A30" s="2">
+        <v>15.026999999999999</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="3" t="e">
+        <v>7.4555856835480327E-2</v>
+      </c>
+      <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-8.3558568354803325E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="e">
+      <c r="A31" s="2">
+        <v>15.206</v>
+      </c>
+      <c r="B31" s="2">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="3" t="e">
+        <v>8.1324634194146428E-2</v>
+      </c>
+      <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-7.4246341941464344E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="e">
+      <c r="A32" s="2">
+        <v>15.266999999999999</v>
+      </c>
+      <c r="B32" s="2">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="3" t="e">
+        <v>8.3631312511904088E-2</v>
+      </c>
+      <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-7.2313125119040922E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="e">
+      <c r="A33" s="2">
+        <v>15.387</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="3" t="e">
+        <v>8.8169040350116024E-2</v>
+      </c>
+      <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-6.5690403501160177E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="e">
+      <c r="A34" s="2">
+        <v>15.507999999999999</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="3" t="e">
+        <v>9.2744582586979651E-2</v>
+      </c>
+      <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-5.9445825869796493E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="e">
+      <c r="A35" s="2">
+        <v>15.69</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="3" t="e">
+        <v>9.962680314160105E-2</v>
+      </c>
+      <c r="D35" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-5.1268031416010496E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="e">
+      <c r="A36" s="2">
+        <v>15.855</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.1016</v>
+      </c>
+      <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="3" t="e">
+        <v>0.10586617891914246</v>
+      </c>
+      <c r="D36" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-4.2661789191424659E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="e">
+      <c r="A37" s="2">
+        <v>15.935</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="3" t="e">
+        <v>0.10889133081128372</v>
+      </c>
+      <c r="D37" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-3.991330811283722E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="e">
+      <c r="A38" s="2">
+        <v>15.996</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="3" t="e">
+        <v>0.11119800912904138</v>
+      </c>
+      <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-3.8980091290413688E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="e">
+      <c r="A39" s="2">
+        <v>16.113</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="3" t="e">
+        <v>0.11562229377129801</v>
+      </c>
+      <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-3.4222937712980184E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="e">
+      <c r="A40" s="2">
+        <v>16.187999999999999</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.1149</v>
+      </c>
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="3" t="e">
+        <v>0.11845837367018036</v>
+      </c>
+      <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-3.5583736701803592E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="e">
+      <c r="A41" s="2">
+        <v>16.305</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.1202</v>
+      </c>
+      <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" s="3" t="e">
+        <v>0.122882658312437</v>
+      </c>
+      <c r="D41" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-2.6826583124369974E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="e">
+      <c r="A42" s="2">
+        <v>16.427</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" s="3" t="e">
+        <v>0.12749601494795243</v>
+      </c>
+      <c r="D42" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-2.2960149479524239E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="e">
+      <c r="A43" s="2">
+        <v>16.613</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.1328</v>
+      </c>
+      <c r="C43" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" s="3" t="e">
+        <v>0.13452949309718093</v>
+      </c>
+      <c r="D43" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.7294930971809286E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="e">
+      <c r="A44" s="2">
+        <v>16.727</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="C44" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" s="3" t="e">
+        <v>0.13884033454348227</v>
+      </c>
+      <c r="D44" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.4403345434822745E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="e">
+      <c r="A45" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.1404</v>
+      </c>
+      <c r="C45" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D45" s="3" t="e">
+        <v>0.14160078564506112</v>
+      </c>
+      <c r="D45" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.2007856450611254E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="e">
+      <c r="A46" s="9">
+        <v>16.986999999999998</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="C46" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" s="3" t="e">
+        <v>0.14867207819294131</v>
+      </c>
+      <c r="D46" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-8.7207819294132793E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="e">
+      <c r="A47" s="2">
+        <v>17.173999999999999</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="C47" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" s="3" t="e">
+        <v>0.15574337074082151</v>
+      </c>
+      <c r="D47" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-6.4337074082151946E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="e">
+      <c r="A48" s="2">
+        <v>17.291</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="C48" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" s="3" t="e">
+        <v>0.16016765538307814</v>
+      </c>
+      <c r="D48" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-4.6765538307813603E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="e">
+      <c r="A49" s="2">
+        <v>17.363</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C49" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" s="3" t="e">
+        <v>0.16289029208600531</v>
+      </c>
+      <c r="D49" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-3.9029208600530052E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="e">
+      <c r="A50" s="2">
+        <v>17.437000000000001</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="C50" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" s="3" t="e">
+        <v>0.16568855758623607</v>
+      </c>
+      <c r="D50" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-2.885575862360823E-4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="e">
+      <c r="A51" s="2">
+        <v>17.552</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.1699</v>
+      </c>
+      <c r="C51" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="3" t="e">
+        <v>0.17003721343118899</v>
+      </c>
+      <c r="D51" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-1.3721343118899831E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="e">
+      <c r="A52" s="9">
+        <v>17.678000000000001</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.1749</v>
+      </c>
+      <c r="C52" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" s="3" t="e">
+        <v>0.17480182766131164</v>
+      </c>
+      <c r="D52" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>9.8172338688362615E-5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="e">
+      <c r="A53" s="2">
+        <v>17.741</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="C53" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="3" t="e">
+        <v>0.17718413477637279</v>
+      </c>
+      <c r="D53" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-8.4134776372785103E-5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="e">
+      <c r="A54" s="2">
+        <v>17.806000000000001</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="C54" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" s="3" t="e">
+        <v>0.17964207068873767</v>
+      </c>
+      <c r="D54" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-4.2070688737655404E-5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="e">
+      <c r="A55" s="2">
+        <v>17.867999999999999</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="C55" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D55" s="3" t="e">
+        <v>0.18198656340514702</v>
+      </c>
+      <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.1343659485299473E-4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="e">
+      <c r="A56" s="2">
+        <v>17.997</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="C56" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" s="3" t="e">
+        <v>0.18686462083122485</v>
+      </c>
+      <c r="D56" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.3537916877515155E-4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="e">
+      <c r="A57" s="2">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D57" s="3" t="e">
+        <v>0.18924692794628611</v>
+      </c>
+      <c r="D57" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.5307205371389854E-4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="e">
+      <c r="A58" s="2">
+        <v>18.125</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="C58" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D58" s="3" t="e">
+        <v>0.19170486385865088</v>
+      </c>
+      <c r="D58" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.951361413491115E-4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="e">
+      <c r="A59" s="2">
+        <v>18.317</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="C59" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D59" s="3" t="e">
+        <v>0.19896522839978997</v>
+      </c>
+      <c r="D59" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.3477160021001531E-4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="e">
+      <c r="A60" s="2">
+        <v>18.437000000000001</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.2039</v>
+      </c>
+      <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D60" s="3" t="e">
+        <v>0.20350295623800191</v>
+      </c>
+      <c r="D60" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.9704376199808933E-4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="e">
+      <c r="A61" s="2">
+        <v>18.510999999999999</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D61" s="3" t="e">
+        <v>0.20630122173823245</v>
+      </c>
+      <c r="D61" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.9877826176753488E-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="e">
+      <c r="A62" s="2">
+        <v>18.64</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D62" s="3" t="e">
+        <v>0.21117927916431029</v>
+      </c>
+      <c r="D62" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.2072083568970271E-4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="e">
+      <c r="A63" s="2">
+        <v>18.768999999999998</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.2162</v>
+      </c>
+      <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D63" s="3" t="e">
+        <v>0.216057336590388</v>
+      </c>
+      <c r="D63" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.426634096119983E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="e">
+      <c r="A64" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D64" s="3" t="e">
+        <v>0.22101102281376933</v>
+      </c>
+      <c r="D64" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>8.8977186230659866E-5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="e">
+      <c r="A65" s="12">
+        <v>19.096</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.2286</v>
+      </c>
+      <c r="C65" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D65" s="3" t="e">
+        <v>0.22842264494951553</v>
+      </c>
+      <c r="D65" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.7735505048446787E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="e">
+      <c r="A66" s="2">
+        <v>19.225999999999999</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D66" s="3" t="e">
+        <v>0.23333851677424505</v>
+      </c>
+      <c r="D66" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.6148322575496032E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="e">
-        <f t="shared" ref="C67:C101" si="2">$G$3*A67^2+$H$3*A67+$I$3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D67" s="3" t="e">
-        <f t="shared" ref="D67:D101" si="3">B67-C67</f>
-        <v>#VALUE!</v>
+      <c r="A67" s="2">
+        <v>19.292000000000002</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.2359</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C82" si="2">A67*$G$3+$H$3</f>
+        <v>0.23583426708526173</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:D82" si="3">B67-C67</f>
+        <v>6.5732914738270143E-5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="e">
+      <c r="A68" s="2">
+        <v>19.417999999999999</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.2407</v>
+      </c>
+      <c r="C68" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D68" s="3" t="e">
+        <v>0.24059888131538415</v>
+      </c>
+      <c r="D68" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>1.0111868461584739E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="e">
+      <c r="A69" s="2">
+        <v>19.555</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="C69" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D69" s="3" t="e">
+        <v>0.24577945393067607</v>
+      </c>
+      <c r="D69" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-1.7945393067606008E-4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="e">
+      <c r="A70" s="2">
+        <v>19.687000000000001</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="C70" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D70" s="3" t="e">
+        <v>0.2507709545527092</v>
+      </c>
+      <c r="D70" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-1.7095455270921267E-4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="e">
+      <c r="A71" s="9">
+        <v>19.756</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="C71" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D71" s="3" t="e">
+        <v>0.25338014805968095</v>
+      </c>
+      <c r="D71" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-1.8014805968097347E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="e">
+      <c r="A72" s="2">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="C72" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D72" s="3" t="e">
+        <v>0.25598934156665282</v>
+      </c>
+      <c r="D72" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-2.8934156665283428E-4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="e">
+      <c r="A73" s="2">
+        <v>19.95</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="C73" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D73" s="3" t="e">
+        <v>0.26071614139812355</v>
+      </c>
+      <c r="D73" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-2.1614139812353717E-4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="e">
+      <c r="A74" s="8">
+        <v>20.02</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="C74" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D74" s="3" t="e">
+        <v>0.2633631493037471</v>
+      </c>
+      <c r="D74" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-1.6314930374711212E-4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="e">
+      <c r="A75" s="2">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="C75" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D75" s="3" t="e">
+        <v>0.26827902112847662</v>
+      </c>
+      <c r="D75" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>2.209788715233918E-4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="e">
+      <c r="A76" s="2">
+        <v>20.29</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.2737</v>
+      </c>
+      <c r="C76" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D76" s="3" t="e">
+        <v>0.27357303693972396</v>
+      </c>
+      <c r="D76" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>1.2696306027604187E-4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="e">
+      <c r="A77" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.2762</v>
+      </c>
+      <c r="C77" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D77" s="3" t="e">
+        <v>0.27622004484534751</v>
+      </c>
+      <c r="D77" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-2.0044845347511053E-5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="e">
+      <c r="A78" s="2">
+        <v>20.49</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="C78" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D78" s="3" t="e">
+        <v>0.28113591667007704</v>
+      </c>
+      <c r="D78" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>3.6408332992293735E-4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="e">
+      <c r="A79" s="2">
+        <v>20.56</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C79" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D79" s="3" t="e">
+        <v>0.2837829245757007</v>
+      </c>
+      <c r="D79" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>2.170754242992734E-4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="e">
+      <c r="A80" s="2">
+        <v>20.63</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="C80" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D80" s="3" t="e">
+        <v>0.28642993248132426</v>
+      </c>
+      <c r="D80" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-2.9932481324268512E-5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="e">
+      <c r="A81" s="2">
+        <v>20.76</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="C81" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D81" s="3" t="e">
+        <v>0.29134580430605389</v>
+      </c>
+      <c r="D81" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>1.5419569394609089E-4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="e">
+      <c r="A82" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="C82" s="2">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D82" s="3" t="e">
+        <v>0.296639820117301</v>
+      </c>
+      <c r="D82" s="2">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>-3.3982011730099293E-4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D83" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D84" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D85" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D86" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D87" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D88" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D90" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D91" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D92" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D93" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D94" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D95" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D96" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D97" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D98" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D99" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D100" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D101" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="7"/>
+      <c r="D102" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/T8B - Frank-Hertz.xlsx
+++ b/T8B - Frank-Hertz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98384A65-64A3-4709-9F71-E13F4EE3BBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33DA450-45DE-4CC9-B019-390115963CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AB49ADD9-0CA5-4C82-AD99-5ED7E5189E9C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Vmin</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>u(I)</t>
+  </si>
+  <si>
+    <t>I (mA)</t>
   </si>
 </sst>
 </file>
@@ -238,9 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,6 +248,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2289,7 +2292,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4464,7 +4467,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5399,7 +5402,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5960,7 +5963,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Resíduos</a:t>
+                  <a:t>Resíduos de I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6717,7 +6720,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" sz="1400"/>
-                  <a:t>Resíduos de I (A)</a:t>
+                  <a:t>Resíduos de I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8200,7 +8203,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10375,7 +10378,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11310,7 +11313,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -14055,7 +14058,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15544,7 +15547,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>I (A)</a:t>
+                  <a:t>I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -16256,7 +16259,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" sz="1400"/>
-                  <a:t>Resíduos de I (A)</a:t>
+                  <a:t>Resíduos de I (mA)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -23817,8 +23820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC4E1F-DE34-448F-AA19-AE0EE9C0CA35}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23848,7 +23851,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>23</v>
@@ -23903,12 +23906,12 @@
         <f t="shared" si="1"/>
         <v>-0.61250871460386624</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="N3" s="9" t="s">
         <v>0</v>
       </c>
@@ -24751,45 +24754,45 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>5.6689999999999996</v>
       </c>
-      <c r="B39" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="B39" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C39" s="13">
         <v>0.26</v>
       </c>
-      <c r="D39" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="D39" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="E39" s="13">
         <f t="shared" si="2"/>
         <v>0.25360630239826543</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <f t="shared" si="3"/>
         <v>6.3936976017345826E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>5.7190000000000003</v>
       </c>
-      <c r="B40" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="12">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D40" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="D40" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="E40" s="12">
         <f t="shared" si="2"/>
         <v>0.25255448269675707</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <f t="shared" si="3"/>
         <v>4.4455173032429407E-3</v>
       </c>
@@ -25930,7 +25933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373E475D-FABE-447D-A5A2-77A25D8F5E9F}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:N4"/>
     </sheetView>
   </sheetViews>
@@ -25995,12 +25998,12 @@
         <f>C2-E2</f>
         <v>0.56227565016946346</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="M2" s="9" t="s">
         <v>19</v>
       </c>
@@ -27402,45 +27405,45 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14">
+      <c r="A64" s="13">
         <v>18.899999999999999</v>
       </c>
-      <c r="B64" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="C64" s="14">
+      <c r="B64" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C64" s="13">
         <v>0.22109999999999999</v>
       </c>
-      <c r="D64" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="E64" s="14">
+      <c r="D64" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="E64" s="13">
         <f t="shared" si="0"/>
         <v>0.22101102281376933</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="13">
         <f t="shared" si="1"/>
         <v>8.8977186230659866E-5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <v>19.096</v>
       </c>
-      <c r="B65" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B65" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C65" s="12">
         <v>0.2286</v>
       </c>
-      <c r="D65" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E65" s="13">
+      <c r="D65" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="E65" s="12">
         <f t="shared" si="0"/>
         <v>0.22842264494951553</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="12">
         <f t="shared" si="1"/>
         <v>1.7735505048446787E-4</v>
       </c>
@@ -27833,8 +27836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A6B64E-E440-49D1-98F4-8A1739F15DFD}">
   <dimension ref="B33:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27850,12 +27853,12 @@
   </cols>
   <sheetData>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="G33" s="11" t="s">
         <v>0</v>
       </c>
@@ -27883,12 +27886,12 @@
       <c r="H34" s="2">
         <v>0.28505799999999998</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
       <c r="S34" s="11" t="s">
         <v>19</v>
       </c>
